--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Bmp3-Acvr2b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Bmp3-Acvr2b.xlsx
@@ -537,43 +537,43 @@
         <v>3.131909666666667</v>
       </c>
       <c r="H2">
-        <v>9.395729000000001</v>
+        <v>9.395728999999999</v>
       </c>
       <c r="I2">
-        <v>0.9475081863095237</v>
+        <v>0.780864851881971</v>
       </c>
       <c r="J2">
-        <v>0.9475081863095237</v>
+        <v>0.7808648518819711</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.539665666666667</v>
+        <v>1.315861666666667</v>
       </c>
       <c r="N2">
-        <v>4.618997</v>
+        <v>3.947585</v>
       </c>
       <c r="O2">
-        <v>0.3572088291809875</v>
+        <v>0.2754050739440597</v>
       </c>
       <c r="P2">
-        <v>0.3572088291809875</v>
+        <v>0.2754050739440597</v>
       </c>
       <c r="Q2">
-        <v>4.822093784868112</v>
+        <v>4.121159873829445</v>
       </c>
       <c r="R2">
-        <v>43.39884406381301</v>
+        <v>37.090438864465</v>
       </c>
       <c r="S2">
-        <v>0.3384582898710259</v>
+        <v>0.2150541422728715</v>
       </c>
       <c r="T2">
-        <v>0.3384582898710259</v>
+        <v>0.2150541422728715</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,13 +599,13 @@
         <v>3.131909666666667</v>
       </c>
       <c r="H3">
-        <v>9.395729000000001</v>
+        <v>9.395728999999999</v>
       </c>
       <c r="I3">
-        <v>0.9475081863095237</v>
+        <v>0.780864851881971</v>
       </c>
       <c r="J3">
-        <v>0.9475081863095237</v>
+        <v>0.7808648518819711</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>4.358617</v>
       </c>
       <c r="O3">
-        <v>0.3370724153789985</v>
+        <v>0.3040809095127364</v>
       </c>
       <c r="P3">
-        <v>0.3370724153789985</v>
+        <v>0.3040809095127364</v>
       </c>
       <c r="Q3">
-        <v>4.550264905199223</v>
+        <v>4.550264905199222</v>
       </c>
       <c r="R3">
-        <v>40.952384146793</v>
+        <v>40.95238414679299</v>
       </c>
       <c r="S3">
-        <v>0.3193788729507253</v>
+        <v>0.2374460943667979</v>
       </c>
       <c r="T3">
-        <v>0.3193788729507253</v>
+        <v>0.237446094366798</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,13 +661,13 @@
         <v>3.131909666666667</v>
       </c>
       <c r="H4">
-        <v>9.395729000000001</v>
+        <v>9.395728999999999</v>
       </c>
       <c r="I4">
-        <v>0.9475081863095237</v>
+        <v>0.780864851881971</v>
       </c>
       <c r="J4">
-        <v>0.9475081863095237</v>
+        <v>0.7808648518819711</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.317729666666666</v>
+        <v>2.009179666666667</v>
       </c>
       <c r="N4">
-        <v>3.953189</v>
+        <v>6.027539</v>
       </c>
       <c r="O4">
-        <v>0.305718755440014</v>
+        <v>0.4205140165432039</v>
       </c>
       <c r="P4">
-        <v>0.305718755440014</v>
+        <v>0.4205140165432039</v>
       </c>
       <c r="Q4">
-        <v>4.127010281086777</v>
+        <v>6.292569220103445</v>
       </c>
       <c r="R4">
-        <v>37.143092529781</v>
+        <v>56.633122980931</v>
       </c>
       <c r="S4">
-        <v>0.2896710234877725</v>
+        <v>0.3283646152423016</v>
       </c>
       <c r="T4">
-        <v>0.2896710234877725</v>
+        <v>0.3283646152423016</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.1735073333333333</v>
+        <v>0.878912</v>
       </c>
       <c r="H5">
-        <v>0.520522</v>
+        <v>2.636736</v>
       </c>
       <c r="I5">
-        <v>0.05249181369047637</v>
+        <v>0.219135148118029</v>
       </c>
       <c r="J5">
-        <v>0.05249181369047637</v>
+        <v>0.219135148118029</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>1.539665666666667</v>
+        <v>1.315861666666667</v>
       </c>
       <c r="N5">
-        <v>4.618997</v>
+        <v>3.947585</v>
       </c>
       <c r="O5">
-        <v>0.3572088291809875</v>
+        <v>0.2754050739440597</v>
       </c>
       <c r="P5">
-        <v>0.3572088291809875</v>
+        <v>0.2754050739440597</v>
       </c>
       <c r="Q5">
-        <v>0.2671432840482223</v>
+        <v>1.156526609173333</v>
       </c>
       <c r="R5">
-        <v>2.404289556434</v>
+        <v>10.40873948256</v>
       </c>
       <c r="S5">
-        <v>0.01875053930996159</v>
+        <v>0.06035093167118825</v>
       </c>
       <c r="T5">
-        <v>0.01875053930996159</v>
+        <v>0.06035093167118827</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,22 +776,22 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.1735073333333333</v>
+        <v>0.878912</v>
       </c>
       <c r="H6">
-        <v>0.520522</v>
+        <v>2.636736</v>
       </c>
       <c r="I6">
-        <v>0.05249181369047637</v>
+        <v>0.219135148118029</v>
       </c>
       <c r="J6">
-        <v>0.05249181369047637</v>
+        <v>0.219135148118029</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>4.358617</v>
       </c>
       <c r="O6">
-        <v>0.3370724153789985</v>
+        <v>0.3040809095127364</v>
       </c>
       <c r="P6">
-        <v>0.3370724153789985</v>
+        <v>0.3040809095127364</v>
       </c>
       <c r="Q6">
-        <v>0.2520840042304445</v>
+        <v>1.276946928234667</v>
       </c>
       <c r="R6">
-        <v>2.268756038074</v>
+        <v>11.492522354112</v>
       </c>
       <c r="S6">
-        <v>0.01769354242827325</v>
+        <v>0.06663481514593847</v>
       </c>
       <c r="T6">
-        <v>0.01769354242827325</v>
+        <v>0.06663481514593848</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,22 +838,22 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.1735073333333333</v>
+        <v>0.878912</v>
       </c>
       <c r="H7">
-        <v>0.520522</v>
+        <v>2.636736</v>
       </c>
       <c r="I7">
-        <v>0.05249181369047637</v>
+        <v>0.219135148118029</v>
       </c>
       <c r="J7">
-        <v>0.05249181369047637</v>
+        <v>0.219135148118029</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.317729666666666</v>
+        <v>2.009179666666667</v>
       </c>
       <c r="N7">
-        <v>3.953189</v>
+        <v>6.027539</v>
       </c>
       <c r="O7">
-        <v>0.305718755440014</v>
+        <v>0.4205140165432039</v>
       </c>
       <c r="P7">
-        <v>0.305718755440014</v>
+        <v>0.4205140165432039</v>
       </c>
       <c r="Q7">
-        <v>0.2286357605175555</v>
+        <v>1.765892119189334</v>
       </c>
       <c r="R7">
-        <v>2.057721844658</v>
+        <v>15.893029072704</v>
       </c>
       <c r="S7">
-        <v>0.01604773195224152</v>
+        <v>0.09214940130090229</v>
       </c>
       <c r="T7">
-        <v>0.01604773195224152</v>
+        <v>0.09214940130090229</v>
       </c>
     </row>
   </sheetData>
